--- a/data/negative_signals/Indirectly connected (A-X-B) - Fexofenadine - Upper gastrointestinal bleeding.xlsx
+++ b/data/negative_signals/Indirectly connected (A-X-B) - Fexofenadine - Upper gastrointestinal bleeding.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="337">
   <si>
     <t>pathWeight</t>
   </si>
@@ -191,43 +191,139 @@
     <t>Disorders</t>
   </si>
   <si>
-    <t>140796839</t>
+    <t>74444594</t>
   </si>
   <si>
     <t>treats</t>
   </si>
   <si>
-    <t>150197238</t>
+    <t>83745936</t>
   </si>
   <si>
     <t>occurs in</t>
   </si>
   <si>
-    <t>121052694</t>
+    <t>54699238</t>
   </si>
   <si>
     <t>is process of</t>
   </si>
   <si>
-    <t>123725981</t>
+    <t>57323173</t>
   </si>
   <si>
     <t>affects</t>
   </si>
   <si>
+    <t>4027653</t>
+  </si>
+  <si>
+    <t>patients</t>
+  </si>
+  <si>
+    <t>62718360</t>
+  </si>
+  <si>
+    <t>is administered to</t>
+  </si>
+  <si>
+    <t>54837309</t>
+  </si>
+  <si>
+    <t>85111302</t>
+  </si>
+  <si>
+    <t>uses</t>
+  </si>
+  <si>
+    <t>57307883</t>
+  </si>
+  <si>
+    <t>52591486</t>
+  </si>
+  <si>
+    <t>57805976</t>
+  </si>
+  <si>
+    <t>is not process of</t>
+  </si>
+  <si>
+    <t>51329725</t>
+  </si>
+  <si>
+    <t>98693987</t>
+  </si>
+  <si>
+    <t>does not occur in</t>
+  </si>
+  <si>
+    <t>5648228</t>
+  </si>
+  <si>
+    <t>therapeutic procedure</t>
+  </si>
+  <si>
+    <t>Procedures</t>
+  </si>
+  <si>
+    <t>85503015</t>
+  </si>
+  <si>
+    <t>is compared with</t>
+  </si>
+  <si>
+    <t>59953214</t>
+  </si>
+  <si>
+    <t>85509391</t>
+  </si>
+  <si>
+    <t>is higher than</t>
+  </si>
+  <si>
+    <t>60534273</t>
+  </si>
+  <si>
+    <t>causes</t>
+  </si>
+  <si>
+    <t>51563689</t>
+  </si>
+  <si>
+    <t>66664549</t>
+  </si>
+  <si>
+    <t>88033969</t>
+  </si>
+  <si>
+    <t>predisposes</t>
+  </si>
+  <si>
+    <t>71124879</t>
+  </si>
+  <si>
+    <t>does not treat</t>
+  </si>
+  <si>
+    <t>58140816</t>
+  </si>
+  <si>
+    <t>prevents</t>
+  </si>
+  <si>
     <t>4611634</t>
   </si>
   <si>
     <t>ventricular fibrillation</t>
   </si>
   <si>
-    <t>82059707</t>
+    <t>15851533</t>
   </si>
   <si>
     <t>indicates</t>
   </si>
   <si>
-    <t>130304703</t>
+    <t>63943058</t>
   </si>
   <si>
     <t>complicates</t>
@@ -239,16 +335,10 @@
     <t>intervention regimes</t>
   </si>
   <si>
-    <t>Procedures</t>
-  </si>
-  <si>
-    <t>193546748</t>
-  </si>
-  <si>
-    <t>uses</t>
-  </si>
-  <si>
-    <t>123207495</t>
+    <t>127393588</t>
+  </si>
+  <si>
+    <t>56807097</t>
   </si>
   <si>
     <t>5102689</t>
@@ -257,10 +347,10 @@
     <t>syncope</t>
   </si>
   <si>
-    <t>82058567</t>
-  </si>
-  <si>
-    <t>199974538</t>
+    <t>15851438</t>
+  </si>
+  <si>
+    <t>133784086</t>
   </si>
   <si>
     <t>is associated with</t>
@@ -272,10 +362,292 @@
     <t>homo sapiens</t>
   </si>
   <si>
-    <t>122964348</t>
-  </si>
-  <si>
-    <t>132028620</t>
+    <t>56566015</t>
+  </si>
+  <si>
+    <t>65674727</t>
+  </si>
+  <si>
+    <t>650553</t>
+  </si>
+  <si>
+    <t>infant</t>
+  </si>
+  <si>
+    <t>89964498</t>
+  </si>
+  <si>
+    <t>53907843</t>
+  </si>
+  <si>
+    <t>2940375</t>
+  </si>
+  <si>
+    <t>symptoms</t>
+  </si>
+  <si>
+    <t>63425467</t>
+  </si>
+  <si>
+    <t>91690153</t>
+  </si>
+  <si>
+    <t>116693801</t>
+  </si>
+  <si>
+    <t>disrupts</t>
+  </si>
+  <si>
+    <t>51356902</t>
+  </si>
+  <si>
+    <t>is a</t>
+  </si>
+  <si>
+    <t>73805637</t>
+  </si>
+  <si>
+    <t>60344438</t>
+  </si>
+  <si>
+    <t>coexists with</t>
+  </si>
+  <si>
+    <t>4042108</t>
+  </si>
+  <si>
+    <t>erythromycin</t>
+  </si>
+  <si>
+    <t>95897473</t>
+  </si>
+  <si>
+    <t>interacts with</t>
+  </si>
+  <si>
+    <t>95897745</t>
+  </si>
+  <si>
+    <t>inhibits</t>
+  </si>
+  <si>
+    <t>65871931</t>
+  </si>
+  <si>
+    <t>4033983</t>
+  </si>
+  <si>
+    <t>pharmaceutical preparations</t>
+  </si>
+  <si>
+    <t>57969057</t>
+  </si>
+  <si>
+    <t>stimulates</t>
+  </si>
+  <si>
+    <t>53654648</t>
+  </si>
+  <si>
+    <t>70301388</t>
+  </si>
+  <si>
+    <t>74607383</t>
+  </si>
+  <si>
+    <t>68098783</t>
+  </si>
+  <si>
+    <t>53654443</t>
+  </si>
+  <si>
+    <t>117858324</t>
+  </si>
+  <si>
+    <t>51563435</t>
+  </si>
+  <si>
+    <t>89816964</t>
+  </si>
+  <si>
+    <t>77651873</t>
+  </si>
+  <si>
+    <t>66750786</t>
+  </si>
+  <si>
+    <t>83279346</t>
+  </si>
+  <si>
+    <t>6107559</t>
+  </si>
+  <si>
+    <t>application procedure</t>
+  </si>
+  <si>
+    <t>129575813</t>
+  </si>
+  <si>
+    <t>60019829</t>
+  </si>
+  <si>
+    <t>132440210</t>
+  </si>
+  <si>
+    <t>5699144</t>
+  </si>
+  <si>
+    <t>ethanol</t>
+  </si>
+  <si>
+    <t>103693412</t>
+  </si>
+  <si>
+    <t>61408825</t>
+  </si>
+  <si>
+    <t>3208634</t>
+  </si>
+  <si>
+    <t>evaluation procedure</t>
+  </si>
+  <si>
+    <t>56524565</t>
+  </si>
+  <si>
+    <t>73189852</t>
+  </si>
+  <si>
+    <t>4041917</t>
+  </si>
+  <si>
+    <t>duodenum</t>
+  </si>
+  <si>
+    <t>Anatomy</t>
+  </si>
+  <si>
+    <t>125901922</t>
+  </si>
+  <si>
+    <t>augments</t>
+  </si>
+  <si>
+    <t>56885398</t>
+  </si>
+  <si>
+    <t>4034534</t>
+  </si>
+  <si>
+    <t>intestines</t>
+  </si>
+  <si>
+    <t>100978758</t>
+  </si>
+  <si>
+    <t>is location of</t>
+  </si>
+  <si>
+    <t>79069968</t>
+  </si>
+  <si>
+    <t>4028398</t>
+  </si>
+  <si>
+    <t>placebos</t>
+  </si>
+  <si>
+    <t>64763301</t>
+  </si>
+  <si>
+    <t>61686055</t>
+  </si>
+  <si>
+    <t>70087323</t>
+  </si>
+  <si>
+    <t>114326300</t>
+  </si>
+  <si>
+    <t>63541786</t>
+  </si>
+  <si>
+    <t>64273753</t>
+  </si>
+  <si>
+    <t>104609662</t>
+  </si>
+  <si>
+    <t>65910669</t>
+  </si>
+  <si>
+    <t>3805896</t>
+  </si>
+  <si>
+    <t>physical findings</t>
+  </si>
+  <si>
+    <t>126539713</t>
+  </si>
+  <si>
+    <t>82624389</t>
+  </si>
+  <si>
+    <t>3777320</t>
+  </si>
+  <si>
+    <t>adolescent (age group)</t>
+  </si>
+  <si>
+    <t>80402079</t>
+  </si>
+  <si>
+    <t>54790428</t>
+  </si>
+  <si>
+    <t>3763552</t>
+  </si>
+  <si>
+    <t>individual</t>
+  </si>
+  <si>
+    <t>119108157</t>
+  </si>
+  <si>
+    <t>78848193</t>
+  </si>
+  <si>
+    <t>36011</t>
+  </si>
+  <si>
+    <t>adult</t>
+  </si>
+  <si>
+    <t>80402003</t>
+  </si>
+  <si>
+    <t>104609269</t>
+  </si>
+  <si>
+    <t>56619494</t>
+  </si>
+  <si>
+    <t>95706485</t>
+  </si>
+  <si>
+    <t>836328</t>
+  </si>
+  <si>
+    <t>blood</t>
+  </si>
+  <si>
+    <t>73908120</t>
+  </si>
+  <si>
+    <t>93370995</t>
+  </si>
+  <si>
+    <t>94509228</t>
   </si>
   <si>
     <t>736321</t>
@@ -284,58 +656,163 @@
     <t>cimetidine</t>
   </si>
   <si>
-    <t>127527143</t>
-  </si>
-  <si>
-    <t>interacts with</t>
-  </si>
-  <si>
-    <t>192590138</t>
-  </si>
-  <si>
-    <t>inhibits</t>
-  </si>
-  <si>
-    <t>136462629</t>
-  </si>
-  <si>
-    <t>128634363</t>
-  </si>
-  <si>
-    <t>prevents</t>
-  </si>
-  <si>
-    <t>119241668</t>
-  </si>
-  <si>
-    <t>36011</t>
-  </si>
-  <si>
-    <t>adult</t>
-  </si>
-  <si>
-    <t>146768260</t>
-  </si>
-  <si>
-    <t>170813544</t>
-  </si>
-  <si>
-    <t>161940030</t>
-  </si>
-  <si>
-    <t>123032046</t>
-  </si>
-  <si>
-    <t>650553</t>
-  </si>
-  <si>
-    <t>infant</t>
-  </si>
-  <si>
-    <t>156195304</t>
-  </si>
-  <si>
-    <t>120230210</t>
+    <t>126371896</t>
+  </si>
+  <si>
+    <t>61116985</t>
+  </si>
+  <si>
+    <t>62249012</t>
+  </si>
+  <si>
+    <t>52946873</t>
+  </si>
+  <si>
+    <t>70040847</t>
+  </si>
+  <si>
+    <t>711620</t>
+  </si>
+  <si>
+    <t>combined modality therapy</t>
+  </si>
+  <si>
+    <t>71362899</t>
+  </si>
+  <si>
+    <t>71362961</t>
+  </si>
+  <si>
+    <t>79393179</t>
+  </si>
+  <si>
+    <t>115479323</t>
+  </si>
+  <si>
+    <t>101750684</t>
+  </si>
+  <si>
+    <t>4771594</t>
+  </si>
+  <si>
+    <t>histamine h2 receptors</t>
+  </si>
+  <si>
+    <t>82989445</t>
+  </si>
+  <si>
+    <t>78355641</t>
+  </si>
+  <si>
+    <t>3072277</t>
+  </si>
+  <si>
+    <t>antimicrobial susceptibility</t>
+  </si>
+  <si>
+    <t>101128086</t>
+  </si>
+  <si>
+    <t>76021122</t>
+  </si>
+  <si>
+    <t>2406105</t>
+  </si>
+  <si>
+    <t>participant</t>
+  </si>
+  <si>
+    <t>81776018</t>
+  </si>
+  <si>
+    <t>133771794</t>
+  </si>
+  <si>
+    <t>837423</t>
+  </si>
+  <si>
+    <t>disease</t>
+  </si>
+  <si>
+    <t>124381240</t>
+  </si>
+  <si>
+    <t>119267642</t>
+  </si>
+  <si>
+    <t>55721196</t>
+  </si>
+  <si>
+    <t>65822493</t>
+  </si>
+  <si>
+    <t>64202804</t>
+  </si>
+  <si>
+    <t>57224390</t>
+  </si>
+  <si>
+    <t>55721271</t>
+  </si>
+  <si>
+    <t>is manifestation of</t>
+  </si>
+  <si>
+    <t>112518550</t>
+  </si>
+  <si>
+    <t>816241</t>
+  </si>
+  <si>
+    <t>canis familiaris</t>
+  </si>
+  <si>
+    <t>94422894</t>
+  </si>
+  <si>
+    <t>51977415</t>
+  </si>
+  <si>
+    <t>645968</t>
+  </si>
+  <si>
+    <t>dinoprostone</t>
+  </si>
+  <si>
+    <t>131819997</t>
+  </si>
+  <si>
+    <t>93678075</t>
+  </si>
+  <si>
+    <t>5792519</t>
+  </si>
+  <si>
+    <t>paroxetine</t>
+  </si>
+  <si>
+    <t>93735101</t>
+  </si>
+  <si>
+    <t>122432635</t>
+  </si>
+  <si>
+    <t>85769179</t>
+  </si>
+  <si>
+    <t>5792464</t>
+  </si>
+  <si>
+    <t>elderly (population group)</t>
+  </si>
+  <si>
+    <t>74444688</t>
+  </si>
+  <si>
+    <t>88171226</t>
+  </si>
+  <si>
+    <t>54146238</t>
   </si>
   <si>
     <t>4047989</t>
@@ -344,343 +821,61 @@
     <t>liver</t>
   </si>
   <si>
-    <t>Anatomy</t>
-  </si>
-  <si>
-    <t>128763441</t>
-  </si>
-  <si>
-    <t>128763651</t>
-  </si>
-  <si>
-    <t>is location of</t>
-  </si>
-  <si>
-    <t>173133987</t>
+    <t>62367099</t>
+  </si>
+  <si>
+    <t>62367297</t>
+  </si>
+  <si>
+    <t>107023073</t>
   </si>
   <si>
     <t>is not location of</t>
   </si>
   <si>
-    <t>2940375</t>
-  </si>
-  <si>
-    <t>symptoms</t>
-  </si>
-  <si>
-    <t>157817468</t>
-  </si>
-  <si>
-    <t>129786220</t>
-  </si>
-  <si>
-    <t>182900135</t>
-  </si>
-  <si>
-    <t>disrupts</t>
-  </si>
-  <si>
-    <t>140278395</t>
-  </si>
-  <si>
-    <t>126741331</t>
-  </si>
-  <si>
-    <t>coexists with</t>
-  </si>
-  <si>
-    <t>117561342</t>
-  </si>
-  <si>
-    <t>is a</t>
-  </si>
-  <si>
-    <t>4042108</t>
-  </si>
-  <si>
-    <t>erythromycin</t>
-  </si>
-  <si>
-    <t>162085655</t>
-  </si>
-  <si>
-    <t>162085438</t>
-  </si>
-  <si>
-    <t>132282739</t>
-  </si>
-  <si>
-    <t>4028398</t>
-  </si>
-  <si>
-    <t>placebos</t>
-  </si>
-  <si>
-    <t>128079677</t>
-  </si>
-  <si>
-    <t>is compared with</t>
-  </si>
-  <si>
-    <t>136429946</t>
-  </si>
-  <si>
-    <t>is higher than</t>
-  </si>
-  <si>
-    <t>131162005</t>
-  </si>
-  <si>
-    <t>180449255</t>
-  </si>
-  <si>
-    <t>170813885</t>
-  </si>
-  <si>
-    <t>predisposes</t>
-  </si>
-  <si>
-    <t>129934987</t>
-  </si>
-  <si>
-    <t>does not treat</t>
-  </si>
-  <si>
-    <t>132310978</t>
-  </si>
-  <si>
-    <t>127508301</t>
-  </si>
-  <si>
-    <t>6107559</t>
-  </si>
-  <si>
-    <t>application procedure</t>
-  </si>
-  <si>
-    <t>195730628</t>
-  </si>
-  <si>
-    <t>126466014</t>
-  </si>
-  <si>
-    <t>198633599</t>
-  </si>
-  <si>
-    <t>5699144</t>
-  </si>
-  <si>
-    <t>ethanol</t>
-  </si>
-  <si>
-    <t>169889181</t>
-  </si>
-  <si>
-    <t>127852232</t>
-  </si>
-  <si>
-    <t>5648228</t>
-  </si>
-  <si>
-    <t>therapeutic procedure</t>
-  </si>
-  <si>
-    <t>126352589</t>
-  </si>
-  <si>
-    <t>151959590</t>
-  </si>
-  <si>
-    <t>151953527</t>
-  </si>
-  <si>
-    <t>117766359</t>
-  </si>
-  <si>
-    <t>133020994</t>
-  </si>
-  <si>
-    <t>154227840</t>
-  </si>
-  <si>
-    <t>126968989</t>
-  </si>
-  <si>
-    <t>causes</t>
-  </si>
-  <si>
-    <t>134946300</t>
-  </si>
-  <si>
-    <t>124630603</t>
-  </si>
-  <si>
-    <t>3208634</t>
-  </si>
-  <si>
-    <t>evaluation procedure</t>
-  </si>
-  <si>
-    <t>122944892</t>
-  </si>
-  <si>
-    <t>139586566</t>
-  </si>
-  <si>
-    <t>4041917</t>
-  </si>
-  <si>
-    <t>duodenum</t>
-  </si>
-  <si>
-    <t>192091155</t>
-  </si>
-  <si>
-    <t>augments</t>
-  </si>
-  <si>
-    <t>123300616</t>
-  </si>
-  <si>
-    <t>4034534</t>
-  </si>
-  <si>
-    <t>intestines</t>
-  </si>
-  <si>
-    <t>167214140</t>
-  </si>
-  <si>
-    <t>145517822</t>
-  </si>
-  <si>
-    <t>3805896</t>
-  </si>
-  <si>
-    <t>physical findings</t>
-  </si>
-  <si>
-    <t>192691891</t>
-  </si>
-  <si>
-    <t>149092943</t>
-  </si>
-  <si>
-    <t>3777320</t>
-  </si>
-  <si>
-    <t>adolescent (age group)</t>
-  </si>
-  <si>
-    <t>146768321</t>
-  </si>
-  <si>
-    <t>121168773</t>
-  </si>
-  <si>
-    <t>3763552</t>
-  </si>
-  <si>
-    <t>individual</t>
-  </si>
-  <si>
-    <t>185251890</t>
-  </si>
-  <si>
-    <t>145247270</t>
-  </si>
-  <si>
-    <t>836328</t>
-  </si>
-  <si>
-    <t>blood</t>
-  </si>
-  <si>
-    <t>140295402</t>
-  </si>
-  <si>
-    <t>160703773</t>
-  </si>
-  <si>
-    <t>159553704</t>
-  </si>
-  <si>
-    <t>711620</t>
-  </si>
-  <si>
-    <t>combined modality therapy</t>
-  </si>
-  <si>
-    <t>137710593</t>
-  </si>
-  <si>
-    <t>145793972</t>
-  </si>
-  <si>
-    <t>137710648</t>
-  </si>
-  <si>
-    <t>181677563</t>
-  </si>
-  <si>
-    <t>167950175</t>
-  </si>
-  <si>
-    <t>4771594</t>
-  </si>
-  <si>
-    <t>histamine h2 receptors</t>
-  </si>
-  <si>
-    <t>149438549</t>
-  </si>
-  <si>
-    <t>stimulates</t>
-  </si>
-  <si>
-    <t>144700911</t>
-  </si>
-  <si>
-    <t>4033983</t>
-  </si>
-  <si>
-    <t>pharmaceutical preparations</t>
-  </si>
-  <si>
-    <t>119985721</t>
-  </si>
-  <si>
-    <t>184069055</t>
-  </si>
-  <si>
-    <t>124399251</t>
-  </si>
-  <si>
-    <t>119985859</t>
-  </si>
-  <si>
-    <t>136714662</t>
-  </si>
-  <si>
-    <t>134446676</t>
-  </si>
-  <si>
-    <t>140994210</t>
-  </si>
-  <si>
-    <t>155973108</t>
-  </si>
-  <si>
-    <t>117766097</t>
-  </si>
-  <si>
-    <t>144088830</t>
-  </si>
-  <si>
-    <t>149700192</t>
-  </si>
-  <si>
-    <t>130146329</t>
+    <t>4035332</t>
+  </si>
+  <si>
+    <t>fever</t>
+  </si>
+  <si>
+    <t>66611805</t>
+  </si>
+  <si>
+    <t>131165834</t>
+  </si>
+  <si>
+    <t>4028517</t>
+  </si>
+  <si>
+    <t>kidney failure, chronic</t>
+  </si>
+  <si>
+    <t>85054893</t>
+  </si>
+  <si>
+    <t>110904367</t>
+  </si>
+  <si>
+    <t>73624453</t>
+  </si>
+  <si>
+    <t>3763784</t>
+  </si>
+  <si>
+    <t>recovery - action</t>
+  </si>
+  <si>
+    <t>Activities &amp; Behaviors</t>
+  </si>
+  <si>
+    <t>75317273</t>
+  </si>
+  <si>
+    <t>does not affect</t>
+  </si>
+  <si>
+    <t>84530920</t>
   </si>
   <si>
     <t>3737354</t>
@@ -689,184 +884,22 @@
     <t>prophylactic treatment</t>
   </si>
   <si>
-    <t>177669506</t>
-  </si>
-  <si>
-    <t>119286478</t>
-  </si>
-  <si>
-    <t>155857335</t>
-  </si>
-  <si>
-    <t>121005053</t>
-  </si>
-  <si>
-    <t>118099137</t>
-  </si>
-  <si>
-    <t>196643003</t>
-  </si>
-  <si>
-    <t>3072277</t>
-  </si>
-  <si>
-    <t>antimicrobial susceptibility</t>
-  </si>
-  <si>
-    <t>167335221</t>
-  </si>
-  <si>
-    <t>142379950</t>
-  </si>
-  <si>
-    <t>2406105</t>
-  </si>
-  <si>
-    <t>participant</t>
-  </si>
-  <si>
-    <t>148156065</t>
-  </si>
-  <si>
-    <t>is administered to</t>
-  </si>
-  <si>
-    <t>199965969</t>
-  </si>
-  <si>
-    <t>816241</t>
-  </si>
-  <si>
-    <t>canis familiaris</t>
-  </si>
-  <si>
-    <t>160599782</t>
-  </si>
-  <si>
-    <t>118222244</t>
-  </si>
-  <si>
-    <t>645968</t>
-  </si>
-  <si>
-    <t>dinoprostone</t>
-  </si>
-  <si>
-    <t>197978559</t>
-  </si>
-  <si>
-    <t>159968650</t>
-  </si>
-  <si>
-    <t>5792519</t>
-  </si>
-  <si>
-    <t>paroxetine</t>
-  </si>
-  <si>
-    <t>159849799</t>
-  </si>
-  <si>
-    <t>188623403</t>
-  </si>
-  <si>
-    <t>152139422</t>
-  </si>
-  <si>
-    <t>5792464</t>
-  </si>
-  <si>
-    <t>elderly (population group)</t>
-  </si>
-  <si>
-    <t>140796879</t>
-  </si>
-  <si>
-    <t>154383225</t>
-  </si>
-  <si>
-    <t>120467910</t>
-  </si>
-  <si>
-    <t>4035332</t>
-  </si>
-  <si>
-    <t>fever</t>
-  </si>
-  <si>
-    <t>132946391</t>
-  </si>
-  <si>
-    <t>197369044</t>
-  </si>
-  <si>
-    <t>4028517</t>
-  </si>
-  <si>
-    <t>kidney failure, chronic</t>
-  </si>
-  <si>
-    <t>151466125</t>
-  </si>
-  <si>
-    <t>140095390</t>
-  </si>
-  <si>
-    <t>177135009</t>
-  </si>
-  <si>
-    <t>4027653</t>
-  </si>
-  <si>
-    <t>patients</t>
-  </si>
-  <si>
-    <t>151492942</t>
-  </si>
-  <si>
-    <t>129097278</t>
-  </si>
-  <si>
-    <t>121197281</t>
-  </si>
-  <si>
-    <t>117524068</t>
-  </si>
-  <si>
-    <t>124207329</t>
-  </si>
-  <si>
-    <t>is not process of</t>
-  </si>
-  <si>
-    <t>164892621</t>
-  </si>
-  <si>
-    <t>does not occur in</t>
-  </si>
-  <si>
-    <t>123718242</t>
-  </si>
-  <si>
-    <t>118894819</t>
-  </si>
-  <si>
-    <t>3763784</t>
-  </si>
-  <si>
-    <t>recovery - action</t>
-  </si>
-  <si>
-    <t>Activities &amp; Behaviors</t>
-  </si>
-  <si>
-    <t>141707460</t>
-  </si>
-  <si>
-    <t>does not affect</t>
-  </si>
-  <si>
-    <t>150943581</t>
+    <t>111440112</t>
+  </si>
+  <si>
+    <t>51903019</t>
+  </si>
+  <si>
+    <t>130438015</t>
+  </si>
+  <si>
+    <t>89588312</t>
+  </si>
+  <si>
+    <t>53005627</t>
+  </si>
+  <si>
+    <t>54665073</t>
   </si>
   <si>
     <t>3225259</t>
@@ -875,13 +908,13 @@
     <t>vascular endothelial growth factor a (homo sapiens)</t>
   </si>
   <si>
-    <t>194841935</t>
+    <t>128619439</t>
   </si>
   <si>
     <t>does not stimulate</t>
   </si>
   <si>
-    <t>180558715</t>
+    <t>114327146</t>
   </si>
   <si>
     <t>3170852</t>
@@ -890,10 +923,10 @@
     <t>acids</t>
   </si>
   <si>
-    <t>181042398</t>
-  </si>
-  <si>
-    <t>128463813</t>
+    <t>114833567</t>
+  </si>
+  <si>
+    <t>62024456</t>
   </si>
   <si>
     <t>3131611</t>
@@ -902,16 +935,16 @@
     <t>observation parameter</t>
   </si>
   <si>
-    <t>197800736</t>
-  </si>
-  <si>
-    <t>176042752</t>
-  </si>
-  <si>
-    <t>167138693</t>
-  </si>
-  <si>
-    <t>167356479</t>
+    <t>131588819</t>
+  </si>
+  <si>
+    <t>109814382</t>
+  </si>
+  <si>
+    <t>101158168</t>
+  </si>
+  <si>
+    <t>101028763</t>
   </si>
   <si>
     <t>307661</t>
@@ -920,10 +953,10 @@
     <t>animals</t>
   </si>
   <si>
-    <t>197800518</t>
-  </si>
-  <si>
-    <t>135719406</t>
+    <t>131588634</t>
+  </si>
+  <si>
+    <t>69283370</t>
   </si>
   <si>
     <t>2506281</t>
@@ -932,16 +965,16 @@
     <t>adverse effects</t>
   </si>
   <si>
-    <t>192083474</t>
-  </si>
-  <si>
-    <t>169727784</t>
-  </si>
-  <si>
-    <t>151492771</t>
-  </si>
-  <si>
-    <t>120188829</t>
+    <t>85111017</t>
+  </si>
+  <si>
+    <t>103499580</t>
+  </si>
+  <si>
+    <t>125893764</t>
+  </si>
+  <si>
+    <t>53871119</t>
   </si>
   <si>
     <t>174139</t>
@@ -950,28 +983,28 @@
     <t>omeprazole</t>
   </si>
   <si>
-    <t>185614723</t>
-  </si>
-  <si>
-    <t>185614592</t>
+    <t>119403136</t>
   </si>
   <si>
     <t>does not interact with</t>
   </si>
   <si>
-    <t>185614666</t>
-  </si>
-  <si>
-    <t>143838343</t>
-  </si>
-  <si>
-    <t>194108356</t>
-  </si>
-  <si>
-    <t>130016501</t>
-  </si>
-  <si>
-    <t>142224878</t>
+    <t>119403257</t>
+  </si>
+  <si>
+    <t>119403224</t>
+  </si>
+  <si>
+    <t>77453943</t>
+  </si>
+  <si>
+    <t>75788016</t>
+  </si>
+  <si>
+    <t>63516768</t>
+  </si>
+  <si>
+    <t>127921717</t>
   </si>
   <si>
     <t>4049131</t>
@@ -983,13 +1016,13 @@
     <t>Physiology</t>
   </si>
   <si>
-    <t>176958641</t>
-  </si>
-  <si>
-    <t>167005914</t>
-  </si>
-  <si>
-    <t>183054930</t>
+    <t>100894529</t>
+  </si>
+  <si>
+    <t>110728614</t>
+  </si>
+  <si>
+    <t>116857901</t>
   </si>
 </sst>
 </file>
@@ -1250,7 +1283,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>29.0</v>
+        <v>63.0</v>
       </c>
       <c r="B3" t="s">
         <v>50</v>
@@ -1268,7 +1301,7 @@
         <v>68</v>
       </c>
       <c r="G3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H3" t="s">
         <v>56</v>
@@ -1289,12 +1322,48 @@
         <v>71</v>
       </c>
       <c r="N3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O3" t="s">
         <v>72</v>
+      </c>
+      <c r="P3" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>74</v>
+      </c>
+      <c r="R3" t="s">
+        <v>66</v>
+      </c>
+      <c r="S3" t="s">
+        <v>75</v>
+      </c>
+      <c r="T3" t="s">
+        <v>62</v>
+      </c>
+      <c r="U3" t="s">
+        <v>76</v>
+      </c>
+      <c r="V3" t="s">
+        <v>77</v>
+      </c>
+      <c r="W3" t="s">
+        <v>78</v>
+      </c>
+      <c r="X3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>22.0</v>
+        <v>32.0</v>
       </c>
       <c r="B4" t="s">
         <v>50</v>
@@ -1306,39 +1375,81 @@
         <v>52</v>
       </c>
       <c r="E4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J4" t="s">
+        <v>58</v>
+      </c>
+      <c r="K4" t="s">
+        <v>84</v>
+      </c>
+      <c r="L4" t="s">
+        <v>85</v>
+      </c>
+      <c r="M4" t="s">
+        <v>86</v>
+      </c>
+      <c r="N4" t="s">
         <v>73</v>
       </c>
-      <c r="F4" t="s">
-        <v>74</v>
-      </c>
-      <c r="G4" t="s">
-        <v>75</v>
-      </c>
-      <c r="H4" t="s">
-        <v>56</v>
-      </c>
-      <c r="I4" t="s">
-        <v>57</v>
-      </c>
-      <c r="J4" t="s">
-        <v>58</v>
-      </c>
-      <c r="K4" t="s">
-        <v>76</v>
-      </c>
-      <c r="L4" t="s">
-        <v>77</v>
-      </c>
-      <c r="M4" t="s">
-        <v>78</v>
-      </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
+        <v>87</v>
+      </c>
+      <c r="P4" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>89</v>
+      </c>
+      <c r="R4" t="s">
+        <v>90</v>
+      </c>
+      <c r="S4" t="s">
+        <v>91</v>
+      </c>
+      <c r="T4" t="s">
         <v>60</v>
+      </c>
+      <c r="U4" t="s">
+        <v>92</v>
+      </c>
+      <c r="V4" t="s">
+        <v>66</v>
+      </c>
+      <c r="W4" t="s">
+        <v>93</v>
+      </c>
+      <c r="X4" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>21.0</v>
+        <v>29.0</v>
       </c>
       <c r="B5" t="s">
         <v>50</v>
@@ -1350,10 +1461,10 @@
         <v>52</v>
       </c>
       <c r="E5" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="F5" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="G5" t="s">
         <v>58</v>
@@ -1368,21 +1479,21 @@
         <v>58</v>
       </c>
       <c r="K5" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="L5" t="s">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="M5" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="N5" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>19.0</v>
+        <v>22.0</v>
       </c>
       <c r="B6" t="s">
         <v>50</v>
@@ -1394,13 +1505,13 @@
         <v>52</v>
       </c>
       <c r="E6" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="F6" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="G6" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="H6" t="s">
         <v>56</v>
@@ -1412,21 +1523,21 @@
         <v>58</v>
       </c>
       <c r="K6" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="L6" t="s">
+        <v>73</v>
+      </c>
+      <c r="M6" t="s">
+        <v>108</v>
+      </c>
+      <c r="N6" t="s">
         <v>60</v>
-      </c>
-      <c r="M6" t="s">
-        <v>87</v>
-      </c>
-      <c r="N6" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>18.0</v>
+        <v>21.0</v>
       </c>
       <c r="B7" t="s">
         <v>50</v>
@@ -1438,13 +1549,13 @@
         <v>52</v>
       </c>
       <c r="E7" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="F7" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="G7" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="H7" t="s">
         <v>56</v>
@@ -1456,39 +1567,21 @@
         <v>58</v>
       </c>
       <c r="K7" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="L7" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="M7" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="N7" t="s">
-        <v>93</v>
-      </c>
-      <c r="O7" t="s">
-        <v>94</v>
-      </c>
-      <c r="P7" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>95</v>
-      </c>
-      <c r="R7" t="s">
-        <v>96</v>
-      </c>
-      <c r="S7" t="s">
-        <v>97</v>
-      </c>
-      <c r="T7" t="s">
-        <v>60</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="B8" t="s">
         <v>50</v>
@@ -1500,10 +1593,10 @@
         <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="F8" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="G8" t="s">
         <v>55</v>
@@ -1518,27 +1611,15 @@
         <v>58</v>
       </c>
       <c r="K8" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="L8" t="s">
         <v>60</v>
       </c>
       <c r="M8" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="N8" t="s">
-        <v>62</v>
-      </c>
-      <c r="O8" t="s">
-        <v>102</v>
-      </c>
-      <c r="P8" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>103</v>
-      </c>
-      <c r="R8" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1556,10 +1637,10 @@
         <v>52</v>
       </c>
       <c r="E9" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="F9" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="G9" t="s">
         <v>55</v>
@@ -1574,13 +1655,13 @@
         <v>58</v>
       </c>
       <c r="K9" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="L9" t="s">
         <v>60</v>
       </c>
       <c r="M9" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="N9" t="s">
         <v>64</v>
@@ -1588,7 +1669,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
       <c r="B10" t="s">
         <v>50</v>
@@ -1600,13 +1681,13 @@
         <v>52</v>
       </c>
       <c r="E10" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="F10" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="G10" t="s">
-        <v>110</v>
+        <v>58</v>
       </c>
       <c r="H10" t="s">
         <v>56</v>
@@ -1618,27 +1699,45 @@
         <v>58</v>
       </c>
       <c r="K10" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="L10" t="s">
+        <v>60</v>
+      </c>
+      <c r="M10" t="s">
+        <v>125</v>
+      </c>
+      <c r="N10" t="s">
         <v>66</v>
       </c>
-      <c r="M10" t="s">
-        <v>112</v>
-      </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
+        <v>126</v>
+      </c>
+      <c r="P10" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>128</v>
+      </c>
+      <c r="R10" t="s">
+        <v>129</v>
+      </c>
+      <c r="S10" t="s">
+        <v>130</v>
+      </c>
+      <c r="T10" t="s">
         <v>113</v>
       </c>
-      <c r="O10" t="s">
-        <v>114</v>
-      </c>
-      <c r="P10" t="s">
-        <v>115</v>
+      <c r="U10" t="s">
+        <v>131</v>
+      </c>
+      <c r="V10" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
       <c r="B11" t="s">
         <v>50</v>
@@ -1650,13 +1749,13 @@
         <v>52</v>
       </c>
       <c r="E11" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="F11" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="G11" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="H11" t="s">
         <v>56</v>
@@ -1668,45 +1767,27 @@
         <v>58</v>
       </c>
       <c r="K11" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="L11" t="s">
-        <v>66</v>
+        <v>136</v>
       </c>
       <c r="M11" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="N11" t="s">
+        <v>138</v>
+      </c>
+      <c r="O11" t="s">
+        <v>139</v>
+      </c>
+      <c r="P11" t="s">
         <v>60</v>
-      </c>
-      <c r="O11" t="s">
-        <v>120</v>
-      </c>
-      <c r="P11" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>122</v>
-      </c>
-      <c r="R11" t="s">
-        <v>83</v>
-      </c>
-      <c r="S11" t="s">
-        <v>123</v>
-      </c>
-      <c r="T11" t="s">
-        <v>124</v>
-      </c>
-      <c r="U11" t="s">
-        <v>125</v>
-      </c>
-      <c r="V11" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="B12" t="s">
         <v>50</v>
@@ -1718,10 +1799,10 @@
         <v>52</v>
       </c>
       <c r="E12" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="F12" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="G12" t="s">
         <v>52</v>
@@ -1736,27 +1817,81 @@
         <v>58</v>
       </c>
       <c r="K12" t="s">
+        <v>142</v>
+      </c>
+      <c r="L12" t="s">
+        <v>143</v>
+      </c>
+      <c r="M12" t="s">
+        <v>144</v>
+      </c>
+      <c r="N12" t="s">
+        <v>88</v>
+      </c>
+      <c r="O12" t="s">
+        <v>145</v>
+      </c>
+      <c r="P12" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>146</v>
+      </c>
+      <c r="R12" t="s">
+        <v>132</v>
+      </c>
+      <c r="S12" t="s">
+        <v>147</v>
+      </c>
+      <c r="T12" t="s">
         <v>129</v>
       </c>
-      <c r="L12" t="s">
-        <v>93</v>
-      </c>
-      <c r="M12" t="s">
-        <v>130</v>
-      </c>
-      <c r="N12" t="s">
-        <v>91</v>
-      </c>
-      <c r="O12" t="s">
-        <v>131</v>
-      </c>
-      <c r="P12" t="s">
+      <c r="U12" t="s">
+        <v>148</v>
+      </c>
+      <c r="V12" t="s">
+        <v>85</v>
+      </c>
+      <c r="W12" t="s">
+        <v>149</v>
+      </c>
+      <c r="X12" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>150</v>
+      </c>
+      <c r="Z12" t="s">
         <v>60</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>152</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>94</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>153</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>154</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="B13" t="s">
         <v>50</v>
@@ -1768,13 +1903,13 @@
         <v>52</v>
       </c>
       <c r="E13" t="s">
-        <v>132</v>
+        <v>155</v>
       </c>
       <c r="F13" t="s">
-        <v>133</v>
+        <v>156</v>
       </c>
       <c r="G13" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="H13" t="s">
         <v>56</v>
@@ -1786,52 +1921,22 @@
         <v>58</v>
       </c>
       <c r="K13" t="s">
-        <v>134</v>
+        <v>157</v>
       </c>
       <c r="L13" t="s">
-        <v>135</v>
+        <v>73</v>
       </c>
       <c r="M13" t="s">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="N13" t="s">
-        <v>137</v>
+        <v>60</v>
       </c>
       <c r="O13" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="P13" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>139</v>
-      </c>
-      <c r="R13" t="s">
-        <v>135</v>
-      </c>
-      <c r="S13" t="s">
-        <v>140</v>
-      </c>
-      <c r="T13" t="s">
-        <v>141</v>
-      </c>
-      <c r="U13" t="s">
-        <v>142</v>
-      </c>
-      <c r="V13" t="s">
-        <v>143</v>
-      </c>
-      <c r="W13" t="s">
-        <v>144</v>
-      </c>
-      <c r="X13" t="s">
-        <v>96</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>145</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14">
@@ -1848,13 +1953,13 @@
         <v>52</v>
       </c>
       <c r="E14" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="F14" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="G14" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="H14" t="s">
         <v>56</v>
@@ -1866,22 +1971,16 @@
         <v>58</v>
       </c>
       <c r="K14" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="L14" t="s">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="M14" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="N14" t="s">
         <v>60</v>
-      </c>
-      <c r="O14" t="s">
-        <v>150</v>
-      </c>
-      <c r="P14" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="15">
@@ -1898,13 +1997,13 @@
         <v>52</v>
       </c>
       <c r="E15" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="F15" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="G15" t="s">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="H15" t="s">
         <v>56</v>
@@ -1916,13 +2015,13 @@
         <v>58</v>
       </c>
       <c r="K15" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="L15" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="M15" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="N15" t="s">
         <v>60</v>
@@ -1930,7 +2029,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="B16" t="s">
         <v>50</v>
@@ -1942,13 +2041,13 @@
         <v>52</v>
       </c>
       <c r="E16" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="F16" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="G16" t="s">
-        <v>75</v>
+        <v>170</v>
       </c>
       <c r="H16" t="s">
         <v>56</v>
@@ -1960,63 +2059,21 @@
         <v>58</v>
       </c>
       <c r="K16" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="L16" t="s">
-        <v>77</v>
+        <v>172</v>
       </c>
       <c r="M16" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="N16" t="s">
-        <v>137</v>
-      </c>
-      <c r="O16" t="s">
-        <v>159</v>
-      </c>
-      <c r="P16" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>160</v>
-      </c>
-      <c r="R16" t="s">
-        <v>60</v>
-      </c>
-      <c r="S16" t="s">
-        <v>161</v>
-      </c>
-      <c r="T16" t="s">
-        <v>66</v>
-      </c>
-      <c r="U16" t="s">
-        <v>162</v>
-      </c>
-      <c r="V16" t="s">
-        <v>141</v>
-      </c>
-      <c r="W16" t="s">
-        <v>163</v>
-      </c>
-      <c r="X16" t="s">
-        <v>164</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>165</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>143</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>166</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="B17" t="s">
         <v>50</v>
@@ -2028,13 +2085,13 @@
         <v>52</v>
       </c>
       <c r="E17" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="F17" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="G17" t="s">
-        <v>75</v>
+        <v>170</v>
       </c>
       <c r="H17" t="s">
         <v>56</v>
@@ -2046,16 +2103,16 @@
         <v>58</v>
       </c>
       <c r="K17" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="L17" t="s">
-        <v>77</v>
+        <v>177</v>
       </c>
       <c r="M17" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="N17" t="s">
-        <v>60</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18">
@@ -2072,13 +2129,13 @@
         <v>52</v>
       </c>
       <c r="E18" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="F18" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="G18" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="H18" t="s">
         <v>56</v>
@@ -2090,16 +2147,52 @@
         <v>58</v>
       </c>
       <c r="K18" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="L18" t="s">
-        <v>174</v>
+        <v>73</v>
       </c>
       <c r="M18" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="N18" t="s">
-        <v>83</v>
+        <v>85</v>
+      </c>
+      <c r="O18" t="s">
+        <v>183</v>
+      </c>
+      <c r="P18" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>184</v>
+      </c>
+      <c r="R18" t="s">
+        <v>85</v>
+      </c>
+      <c r="S18" t="s">
+        <v>185</v>
+      </c>
+      <c r="T18" t="s">
+        <v>96</v>
+      </c>
+      <c r="U18" t="s">
+        <v>186</v>
+      </c>
+      <c r="V18" t="s">
+        <v>60</v>
+      </c>
+      <c r="W18" t="s">
+        <v>187</v>
+      </c>
+      <c r="X18" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="19">
@@ -2116,13 +2209,13 @@
         <v>52</v>
       </c>
       <c r="E19" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="F19" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="G19" t="s">
-        <v>110</v>
+        <v>58</v>
       </c>
       <c r="H19" t="s">
         <v>56</v>
@@ -2134,16 +2227,16 @@
         <v>58</v>
       </c>
       <c r="K19" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="L19" t="s">
-        <v>113</v>
+        <v>60</v>
       </c>
       <c r="M19" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="N19" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20">
@@ -2160,13 +2253,13 @@
         <v>52</v>
       </c>
       <c r="E20" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="F20" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="G20" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H20" t="s">
         <v>56</v>
@@ -2178,16 +2271,16 @@
         <v>58</v>
       </c>
       <c r="K20" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="L20" t="s">
         <v>60</v>
       </c>
       <c r="M20" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="N20" t="s">
-        <v>126</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21">
@@ -2204,10 +2297,10 @@
         <v>52</v>
       </c>
       <c r="E21" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="F21" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="G21" t="s">
         <v>55</v>
@@ -2222,13 +2315,13 @@
         <v>58</v>
       </c>
       <c r="K21" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="L21" t="s">
         <v>60</v>
       </c>
       <c r="M21" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="N21" t="s">
         <v>64</v>
@@ -2248,10 +2341,10 @@
         <v>52</v>
       </c>
       <c r="E22" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="F22" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="G22" t="s">
         <v>55</v>
@@ -2266,16 +2359,28 @@
         <v>58</v>
       </c>
       <c r="K22" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="L22" t="s">
         <v>60</v>
       </c>
       <c r="M22" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="N22" t="s">
+        <v>62</v>
+      </c>
+      <c r="O22" t="s">
+        <v>205</v>
+      </c>
+      <c r="P22" t="s">
         <v>64</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>206</v>
+      </c>
+      <c r="R22" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="23">
@@ -2292,13 +2397,13 @@
         <v>52</v>
       </c>
       <c r="E23" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="F23" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="G23" t="s">
-        <v>110</v>
+        <v>170</v>
       </c>
       <c r="H23" t="s">
         <v>56</v>
@@ -2310,22 +2415,22 @@
         <v>58</v>
       </c>
       <c r="K23" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="L23" t="s">
-        <v>113</v>
+        <v>177</v>
       </c>
       <c r="M23" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="N23" t="s">
-        <v>113</v>
+        <v>64</v>
       </c>
       <c r="O23" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="P23" t="s">
-        <v>64</v>
+        <v>177</v>
       </c>
     </row>
     <row r="24">
@@ -2342,13 +2447,13 @@
         <v>52</v>
       </c>
       <c r="E24" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="F24" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="G24" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="H24" t="s">
         <v>56</v>
@@ -2360,34 +2465,34 @@
         <v>58</v>
       </c>
       <c r="K24" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="L24" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="M24" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="N24" t="s">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="O24" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="P24" t="s">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="Q24" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="R24" t="s">
         <v>60</v>
       </c>
       <c r="S24" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="T24" t="s">
-        <v>141</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25">
@@ -2404,13 +2509,13 @@
         <v>52</v>
       </c>
       <c r="E25" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="F25" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="G25" t="s">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="H25" t="s">
         <v>56</v>
@@ -2422,16 +2527,34 @@
         <v>58</v>
       </c>
       <c r="K25" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="L25" t="s">
-        <v>207</v>
+        <v>85</v>
       </c>
       <c r="M25" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="N25" t="s">
-        <v>121</v>
+        <v>88</v>
+      </c>
+      <c r="O25" t="s">
+        <v>223</v>
+      </c>
+      <c r="P25" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>224</v>
+      </c>
+      <c r="R25" t="s">
+        <v>60</v>
+      </c>
+      <c r="S25" t="s">
+        <v>225</v>
+      </c>
+      <c r="T25" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="26">
@@ -2448,10 +2571,10 @@
         <v>52</v>
       </c>
       <c r="E26" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="F26" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="G26" t="s">
         <v>52</v>
@@ -2466,76 +2589,16 @@
         <v>58</v>
       </c>
       <c r="K26" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="L26" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="M26" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="N26" t="s">
-        <v>91</v>
-      </c>
-      <c r="O26" t="s">
-        <v>213</v>
-      </c>
-      <c r="P26" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>214</v>
-      </c>
-      <c r="R26" t="s">
-        <v>137</v>
-      </c>
-      <c r="S26" t="s">
-        <v>215</v>
-      </c>
-      <c r="T26" t="s">
-        <v>91</v>
-      </c>
-      <c r="U26" t="s">
-        <v>216</v>
-      </c>
-      <c r="V26" t="s">
-        <v>126</v>
-      </c>
-      <c r="W26" t="s">
-        <v>217</v>
-      </c>
-      <c r="X26" t="s">
-        <v>124</v>
-      </c>
-      <c r="Y26" t="s">
-        <v>218</v>
-      </c>
-      <c r="Z26" t="s">
-        <v>96</v>
-      </c>
-      <c r="AA26" t="s">
-        <v>219</v>
-      </c>
-      <c r="AB26" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC26" t="s">
-        <v>220</v>
-      </c>
-      <c r="AD26" t="s">
-        <v>141</v>
-      </c>
-      <c r="AE26" t="s">
-        <v>221</v>
-      </c>
-      <c r="AF26" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG26" t="s">
-        <v>222</v>
-      </c>
-      <c r="AH26" t="s">
-        <v>164</v>
+        <v>127</v>
       </c>
     </row>
     <row r="27">
@@ -2552,13 +2615,13 @@
         <v>52</v>
       </c>
       <c r="E27" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="F27" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="G27" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="H27" t="s">
         <v>56</v>
@@ -2570,40 +2633,16 @@
         <v>58</v>
       </c>
       <c r="K27" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="L27" t="s">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="M27" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="N27" t="s">
-        <v>143</v>
-      </c>
-      <c r="O27" t="s">
-        <v>227</v>
-      </c>
-      <c r="P27" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>228</v>
-      </c>
-      <c r="R27" t="s">
-        <v>60</v>
-      </c>
-      <c r="S27" t="s">
-        <v>229</v>
-      </c>
-      <c r="T27" t="s">
-        <v>96</v>
-      </c>
-      <c r="U27" t="s">
-        <v>230</v>
-      </c>
-      <c r="V27" t="s">
-        <v>164</v>
+        <v>132</v>
       </c>
     </row>
     <row r="28">
@@ -2620,13 +2659,13 @@
         <v>52</v>
       </c>
       <c r="E28" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="F28" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="G28" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H28" t="s">
         <v>56</v>
@@ -2638,21 +2677,21 @@
         <v>58</v>
       </c>
       <c r="K28" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="L28" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="M28" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="N28" t="s">
-        <v>124</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="B29" t="s">
         <v>50</v>
@@ -2664,13 +2703,13 @@
         <v>52</v>
       </c>
       <c r="E29" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="F29" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="G29" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H29" t="s">
         <v>56</v>
@@ -2682,16 +2721,52 @@
         <v>58</v>
       </c>
       <c r="K29" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="L29" t="s">
-        <v>238</v>
+        <v>60</v>
       </c>
       <c r="M29" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="N29" t="s">
-        <v>64</v>
+        <v>132</v>
+      </c>
+      <c r="O29" t="s">
+        <v>242</v>
+      </c>
+      <c r="P29" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>243</v>
+      </c>
+      <c r="R29" t="s">
+        <v>90</v>
+      </c>
+      <c r="S29" t="s">
+        <v>244</v>
+      </c>
+      <c r="T29" t="s">
+        <v>104</v>
+      </c>
+      <c r="U29" t="s">
+        <v>245</v>
+      </c>
+      <c r="V29" t="s">
+        <v>90</v>
+      </c>
+      <c r="W29" t="s">
+        <v>246</v>
+      </c>
+      <c r="X29" t="s">
+        <v>247</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>248</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="30">
@@ -2708,10 +2783,10 @@
         <v>52</v>
       </c>
       <c r="E30" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="F30" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="G30" t="s">
         <v>55</v>
@@ -2726,13 +2801,13 @@
         <v>58</v>
       </c>
       <c r="K30" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="L30" t="s">
         <v>60</v>
       </c>
       <c r="M30" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="N30" t="s">
         <v>64</v>
@@ -2752,10 +2827,10 @@
         <v>52</v>
       </c>
       <c r="E31" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="F31" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="G31" t="s">
         <v>52</v>
@@ -2770,13 +2845,13 @@
         <v>58</v>
       </c>
       <c r="K31" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="L31" t="s">
-        <v>93</v>
+        <v>138</v>
       </c>
       <c r="M31" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="N31" t="s">
         <v>60</v>
@@ -2796,10 +2871,10 @@
         <v>52</v>
       </c>
       <c r="E32" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="F32" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="G32" t="s">
         <v>52</v>
@@ -2814,19 +2889,19 @@
         <v>58</v>
       </c>
       <c r="K32" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="L32" t="s">
-        <v>91</v>
+        <v>136</v>
       </c>
       <c r="M32" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="N32" t="s">
-        <v>91</v>
+        <v>136</v>
       </c>
       <c r="O32" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="P32" t="s">
         <v>66</v>
@@ -2846,10 +2921,10 @@
         <v>52</v>
       </c>
       <c r="E33" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="F33" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="G33" t="s">
         <v>55</v>
@@ -2864,19 +2939,19 @@
         <v>58</v>
       </c>
       <c r="K33" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="L33" t="s">
         <v>60</v>
       </c>
       <c r="M33" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="N33" t="s">
         <v>62</v>
       </c>
       <c r="O33" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="P33" t="s">
         <v>64</v>
@@ -2896,13 +2971,13 @@
         <v>52</v>
       </c>
       <c r="E34" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="F34" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="G34" t="s">
-        <v>58</v>
+        <v>170</v>
       </c>
       <c r="H34" t="s">
         <v>56</v>
@@ -2914,16 +2989,22 @@
         <v>58</v>
       </c>
       <c r="K34" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="L34" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="M34" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="N34" t="s">
-        <v>124</v>
+        <v>177</v>
+      </c>
+      <c r="O34" t="s">
+        <v>271</v>
+      </c>
+      <c r="P34" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="35">
@@ -2940,10 +3021,10 @@
         <v>52</v>
       </c>
       <c r="E35" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="F35" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="G35" t="s">
         <v>58</v>
@@ -2958,22 +3039,16 @@
         <v>58</v>
       </c>
       <c r="K35" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="L35" t="s">
-        <v>60</v>
+        <v>138</v>
       </c>
       <c r="M35" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="N35" t="s">
-        <v>124</v>
-      </c>
-      <c r="O35" t="s">
-        <v>266</v>
-      </c>
-      <c r="P35" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="36">
@@ -2990,13 +3065,13 @@
         <v>52</v>
       </c>
       <c r="E36" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="F36" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="G36" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H36" t="s">
         <v>56</v>
@@ -3008,52 +3083,22 @@
         <v>58</v>
       </c>
       <c r="K36" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="L36" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="M36" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="N36" t="s">
-        <v>238</v>
+        <v>94</v>
       </c>
       <c r="O36" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="P36" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>272</v>
-      </c>
-      <c r="R36" t="s">
-        <v>64</v>
-      </c>
-      <c r="S36" t="s">
-        <v>273</v>
-      </c>
-      <c r="T36" t="s">
-        <v>274</v>
-      </c>
-      <c r="U36" t="s">
-        <v>275</v>
-      </c>
-      <c r="V36" t="s">
-        <v>276</v>
-      </c>
-      <c r="W36" t="s">
-        <v>277</v>
-      </c>
-      <c r="X36" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y36" t="s">
-        <v>278</v>
-      </c>
-      <c r="Z36" t="s">
-        <v>62</v>
+        <v>132</v>
       </c>
     </row>
     <row r="37">
@@ -3070,13 +3115,13 @@
         <v>52</v>
       </c>
       <c r="E37" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="F37" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="G37" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="H37" t="s">
         <v>56</v>
@@ -3088,16 +3133,16 @@
         <v>58</v>
       </c>
       <c r="K37" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="L37" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="M37" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="N37" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38">
@@ -3114,13 +3159,13 @@
         <v>52</v>
       </c>
       <c r="E38" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F38" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="G38" t="s">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="H38" t="s">
         <v>56</v>
@@ -3132,16 +3177,40 @@
         <v>58</v>
       </c>
       <c r="K38" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="L38" t="s">
-        <v>288</v>
+        <v>73</v>
       </c>
       <c r="M38" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="N38" t="s">
-        <v>141</v>
+        <v>98</v>
+      </c>
+      <c r="O38" t="s">
+        <v>292</v>
+      </c>
+      <c r="P38" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>293</v>
+      </c>
+      <c r="R38" t="s">
+        <v>94</v>
+      </c>
+      <c r="S38" t="s">
+        <v>294</v>
+      </c>
+      <c r="T38" t="s">
+        <v>96</v>
+      </c>
+      <c r="U38" t="s">
+        <v>295</v>
+      </c>
+      <c r="V38" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="39">
@@ -3158,10 +3227,10 @@
         <v>52</v>
       </c>
       <c r="E39" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="F39" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="G39" t="s">
         <v>52</v>
@@ -3176,16 +3245,16 @@
         <v>58</v>
       </c>
       <c r="K39" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="L39" t="s">
-        <v>91</v>
+        <v>299</v>
       </c>
       <c r="M39" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="N39" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
     </row>
     <row r="40">
@@ -3202,13 +3271,13 @@
         <v>52</v>
       </c>
       <c r="E40" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="F40" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="G40" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="H40" t="s">
         <v>56</v>
@@ -3220,28 +3289,16 @@
         <v>58</v>
       </c>
       <c r="K40" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="L40" t="s">
-        <v>283</v>
+        <v>136</v>
       </c>
       <c r="M40" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="N40" t="s">
-        <v>60</v>
-      </c>
-      <c r="O40" t="s">
-        <v>298</v>
-      </c>
-      <c r="P40" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>299</v>
-      </c>
-      <c r="R40" t="s">
-        <v>124</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41">
@@ -3258,13 +3315,13 @@
         <v>52</v>
       </c>
       <c r="E41" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="F41" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="G41" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H41" t="s">
         <v>56</v>
@@ -3276,16 +3333,28 @@
         <v>58</v>
       </c>
       <c r="K41" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="L41" t="s">
-        <v>113</v>
+        <v>286</v>
       </c>
       <c r="M41" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="N41" t="s">
-        <v>64</v>
+        <v>60</v>
+      </c>
+      <c r="O41" t="s">
+        <v>309</v>
+      </c>
+      <c r="P41" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>310</v>
+      </c>
+      <c r="R41" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="42">
@@ -3302,13 +3371,13 @@
         <v>52</v>
       </c>
       <c r="E42" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="F42" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="G42" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H42" t="s">
         <v>56</v>
@@ -3320,28 +3389,16 @@
         <v>58</v>
       </c>
       <c r="K42" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="L42" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="M42" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="N42" t="s">
-        <v>60</v>
-      </c>
-      <c r="O42" t="s">
-        <v>308</v>
-      </c>
-      <c r="P42" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>309</v>
-      </c>
-      <c r="R42" t="s">
-        <v>124</v>
+        <v>64</v>
       </c>
     </row>
     <row r="43">
@@ -3358,13 +3415,13 @@
         <v>52</v>
       </c>
       <c r="E43" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="F43" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="G43" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="H43" t="s">
         <v>56</v>
@@ -3376,51 +3433,33 @@
         <v>58</v>
       </c>
       <c r="K43" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="L43" t="s">
-        <v>135</v>
+        <v>98</v>
       </c>
       <c r="M43" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="N43" t="s">
-        <v>314</v>
+        <v>60</v>
       </c>
       <c r="O43" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="P43" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q43" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="R43" t="s">
-        <v>60</v>
-      </c>
-      <c r="S43" t="s">
-        <v>317</v>
-      </c>
-      <c r="T43" t="s">
-        <v>121</v>
-      </c>
-      <c r="U43" t="s">
-        <v>318</v>
-      </c>
-      <c r="V43" t="s">
-        <v>164</v>
-      </c>
-      <c r="W43" t="s">
-        <v>319</v>
-      </c>
-      <c r="X43" t="s">
-        <v>96</v>
+        <v>132</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B44" t="s">
         <v>50</v>
@@ -3432,13 +3471,13 @@
         <v>52</v>
       </c>
       <c r="E44" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F44" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="G44" t="s">
-        <v>322</v>
+        <v>52</v>
       </c>
       <c r="H44" t="s">
         <v>56</v>
@@ -3453,18 +3492,92 @@
         <v>323</v>
       </c>
       <c r="L44" t="s">
+        <v>324</v>
+      </c>
+      <c r="M44" t="s">
+        <v>325</v>
+      </c>
+      <c r="N44" t="s">
+        <v>85</v>
+      </c>
+      <c r="O44" t="s">
+        <v>326</v>
+      </c>
+      <c r="P44" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>327</v>
+      </c>
+      <c r="R44" t="s">
+        <v>60</v>
+      </c>
+      <c r="S44" t="s">
+        <v>328</v>
+      </c>
+      <c r="T44" t="s">
+        <v>98</v>
+      </c>
+      <c r="U44" t="s">
+        <v>329</v>
+      </c>
+      <c r="V44" t="s">
+        <v>90</v>
+      </c>
+      <c r="W44" t="s">
+        <v>330</v>
+      </c>
+      <c r="X44" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B45" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45" t="s">
+        <v>51</v>
+      </c>
+      <c r="D45" t="s">
+        <v>52</v>
+      </c>
+      <c r="E45" t="s">
+        <v>331</v>
+      </c>
+      <c r="F45" t="s">
+        <v>332</v>
+      </c>
+      <c r="G45" t="s">
+        <v>333</v>
+      </c>
+      <c r="H45" t="s">
+        <v>56</v>
+      </c>
+      <c r="I45" t="s">
+        <v>57</v>
+      </c>
+      <c r="J45" t="s">
+        <v>58</v>
+      </c>
+      <c r="K45" t="s">
+        <v>334</v>
+      </c>
+      <c r="L45" t="s">
+        <v>138</v>
+      </c>
+      <c r="M45" t="s">
+        <v>335</v>
+      </c>
+      <c r="N45" t="s">
         <v>66</v>
       </c>
-      <c r="M44" t="s">
-        <v>324</v>
-      </c>
-      <c r="N44" t="s">
-        <v>93</v>
-      </c>
-      <c r="O44" t="s">
-        <v>325</v>
-      </c>
-      <c r="P44" t="s">
+      <c r="O45" t="s">
+        <v>336</v>
+      </c>
+      <c r="P45" t="s">
         <v>66</v>
       </c>
     </row>
